--- a/src/main/resources/rules.xlsx
+++ b/src/main/resources/rules.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="131">
   <si>
     <t>RuleSet</t>
-  </si>
-  <si>
-    <t>com.example.agents.drools.config.model</t>
   </si>
   <si>
     <t>Sequential</t>
@@ -422,10 +419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -449,14 +446,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -473,14 +462,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,7 +476,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,14 +505,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -531,23 +513,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -562,6 +529,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -569,9 +559,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,6 +581,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -619,6 +616,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -631,43 +742,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,91 +772,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,31 +796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,15 +840,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -887,6 +875,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -916,162 +922,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1087,6 +1084,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="17" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="17" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="17" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="17" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1487,7 +1485,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77777777777778" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1507,1193 +1505,1194 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="7" t="e">
+        <f>-C11</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="43.2" spans="1:8">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" ht="43.2" spans="1:8">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="11" t="s">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <f t="shared" ref="B11:B49" si="0">IF(COUNTIF(C11:G11,"=""Any KPI breach""")&gt;0,0,COUNTIF(C11:G11,"&lt;&gt;""None"""))</f>
         <v>0</v>
       </c>
       <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>33</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>43</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
         <v>46</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>45</v>
+        <v>20</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
         <v>48</v>
       </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
-        <v>49</v>
-      </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>45</v>
+        <v>20</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
         <v>56</v>
       </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>52</v>
+        <v>20</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
         <v>58</v>
       </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="D29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
         <v>61</v>
       </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="E30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="E31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
         <v>65</v>
       </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="E32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="E33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>62</v>
-      </c>
-      <c r="D34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="D35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
         <v>71</v>
       </c>
-      <c r="B36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>72</v>
-      </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
         <v>74</v>
       </c>
-      <c r="B38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="D38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="D39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
         <v>78</v>
       </c>
-      <c r="B40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C40" t="s">
-        <v>79</v>
-      </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>76</v>
+        <v>20</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G41" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>76</v>
+        <v>24</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
         <v>81</v>
       </c>
-      <c r="B42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>82</v>
-      </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>76</v>
+        <v>20</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G43" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>76</v>
+        <v>24</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>76</v>
+        <v>20</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>76</v>
+        <v>24</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>76</v>
+        <v>20</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G47" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>76</v>
+        <v>24</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
         <v>88</v>
       </c>
-      <c r="B48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C48" t="s">
-        <v>89</v>
-      </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>76</v>
+        <v>20</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G49" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>76</v>
+        <v>24</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2736,298 +2735,298 @@
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="4"/>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="4"/>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="31" ht="28.8" spans="2:3">
       <c r="B31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="33" ht="43.2" spans="2:3">
       <c r="B33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" s="5"/>
     </row>
     <row r="35" ht="43.2" spans="2:3">
       <c r="B35" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="36" ht="28.8" spans="2:3">
       <c r="B36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" ht="28.8" spans="2:3">
       <c r="B40" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" ht="43.2" spans="2:3">
       <c r="B42" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" ht="43.2" spans="2:3">
       <c r="B44" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" ht="28.8" spans="2:3">
       <c r="B45" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3058,90 +3057,90 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/rules.xlsx
+++ b/src/main/resources/rules.xlsx
@@ -419,10 +419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -446,18 +446,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,7 +468,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,13 +493,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,19 +514,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,6 +537,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -545,6 +552,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -559,20 +567,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -581,9 +575,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,7 +616,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,13 +658,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,144 +778,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -797,6 +791,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,6 +840,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -866,29 +886,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,146 +925,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1485,7 +1485,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77777777777778" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1505,10 +1505,7 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="e">
-        <f>-C11</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="B1" s="7"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
